--- a/outputs-GTDB-r202/root.xlsx
+++ b/outputs-GTDB-r202/root.xlsx
@@ -2776,7 +2776,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -4128,7 +4128,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -4232,7 +4232,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5766,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -6754,7 +6754,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -8080,7 +8080,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>d__Archaea</t>
+          <t>d__Archaea(reject)</t>
         </is>
       </c>
     </row>
@@ -8314,7 +8314,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -8704,7 +8704,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -9198,7 +9198,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>d__Archaea</t>
+          <t>d__Archaea(reject)</t>
         </is>
       </c>
     </row>
@@ -10680,7 +10680,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -10784,7 +10784,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -13228,7 +13228,7 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>d__Archaea</t>
+          <t>d__Archaea(reject)</t>
         </is>
       </c>
     </row>
@@ -14112,7 +14112,7 @@
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -15516,7 +15516,7 @@
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -15698,7 +15698,7 @@
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -16582,7 +16582,7 @@
       </c>
       <c r="F621" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -17232,7 +17232,7 @@
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -17440,7 +17440,7 @@
       </c>
       <c r="F654" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -18740,7 +18740,7 @@
       </c>
       <c r="F704" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -18948,7 +18948,7 @@
       </c>
       <c r="F712" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -19936,7 +19936,7 @@
       </c>
       <c r="F750" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -20066,7 +20066,7 @@
       </c>
       <c r="F755" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -20248,7 +20248,7 @@
       </c>
       <c r="F762" t="inlineStr">
         <is>
-          <t>d__Archaea</t>
+          <t>d__Archaea(reject)</t>
         </is>
       </c>
     </row>
@@ -20716,7 +20716,7 @@
       </c>
       <c r="F780" t="inlineStr">
         <is>
-          <t>d__Archaea</t>
+          <t>d__Archaea(reject)</t>
         </is>
       </c>
     </row>
@@ -20898,7 +20898,7 @@
       </c>
       <c r="F787" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -21860,7 +21860,7 @@
       </c>
       <c r="F824" t="inlineStr">
         <is>
-          <t>d__Archaea</t>
+          <t>d__Archaea(reject)</t>
         </is>
       </c>
     </row>
@@ -22302,7 +22302,7 @@
       </c>
       <c r="F841" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -23056,7 +23056,7 @@
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -23368,7 +23368,7 @@
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -23810,7 +23810,7 @@
       </c>
       <c r="F899" t="inlineStr">
         <is>
-          <t>d__Archaea</t>
+          <t>d__Archaea(reject)</t>
         </is>
       </c>
     </row>
@@ -24122,7 +24122,7 @@
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
